--- a/CommentaarProject_Meulemans_Ben_r0263299.xlsx
+++ b/CommentaarProject_Meulemans_Ben_r0263299.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>In orde?</t>
   </si>
@@ -33,9 +33,6 @@
     <t>1. Raadplegen</t>
   </si>
   <si>
-    <t>Wachtwoord gebruikt?  Extra entity klasse?</t>
-  </si>
-  <si>
     <t>3. Uitbreiding: Admin-kant</t>
   </si>
   <si>
@@ -90,10 +87,19 @@
     <t>4. Extra property inleverdatum; je kan geen artikels uitlenen die nog door iemand anders uitgeleend zijn</t>
   </si>
   <si>
-    <t>Moet exacte naam zijn, niet een deel van</t>
-  </si>
-  <si>
     <t>De pagina is volledig responsive, op elke breedte is alles mooi uitgelijnd en duidelijk weergegeven</t>
+  </si>
+  <si>
+    <t>weergegeven zonder hoofdletters</t>
+  </si>
+  <si>
+    <t>admin moet aanmelden met "admin" ipv met een lidnummer</t>
+  </si>
+  <si>
+    <t>zonder wachtwoord, enkel lidnummer, wel NumberFormatException opgevangen</t>
+  </si>
+  <si>
+    <t>Deftige meldingen voor de gebruiker</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +512,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>3</v>
@@ -514,7 +520,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>3</v>
@@ -522,7 +528,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>3</v>
@@ -530,7 +536,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>3</v>
@@ -538,53 +544,50 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>3</v>
@@ -592,7 +595,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>3</v>
@@ -600,12 +603,15 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>3</v>
@@ -613,7 +619,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>3</v>
@@ -621,7 +627,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>3</v>
@@ -629,7 +635,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>3</v>
@@ -637,7 +643,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>3</v>
@@ -645,17 +651,20 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
+      <c r="O22" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>

--- a/CommentaarProject_Meulemans_Ben_r0263299.xlsx
+++ b/CommentaarProject_Meulemans_Ben_r0263299.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>In orde?</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>Deftige meldingen voor de gebruiker</t>
+  </si>
+  <si>
+    <t>Als een nog niet bestaand lid een artikel bekijkt  en wil uitlenen, maar moet eerst een account aanmaken, kan deze na het aanmaken zijn laatst bekeken artikel oproepen zodat hij niet terug in de lijst moet gaan zoeken</t>
+  </si>
+  <si>
+    <t>insert alleen bij registreren</t>
+  </si>
+  <si>
+    <t>nee</t>
+  </si>
+  <si>
+    <t>na een lid te selecteren kan u doorklikken naar de uitleningen van de persoon</t>
   </si>
 </sst>
 </file>
@@ -483,13 +495,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="15" width="9.140625" style="6"/>
+    <col min="14" max="14" width="9.140625" style="6"/>
+    <col min="15" max="15" width="199.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
@@ -616,13 +629,16 @@
       <c r="N16" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="O16" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -630,7 +646,7 @@
         <v>20</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -639,6 +655,9 @@
       </c>
       <c r="N19" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -668,6 +687,9 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
+      <c r="O23" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
